--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -472,22 +472,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -600,27 +600,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>HS261 (Elective)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HS261 (Elective)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>DA262</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -870,27 +870,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>CS304 (Tutorial)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>HS261 (Elective)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3094,12 +3094,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3390,12 +3390,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>DA262</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HS261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -632,12 +632,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS251 (Tutorial)</t>
+          <t>HS261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -779,12 +779,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
     </row>
@@ -838,22 +838,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HS261 (Tutorial)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>DA261</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS251 (Tutorial)</t>
+          <t>HS261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,67 +1023,77 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>HSS (Ethics &amp; 2+1)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>0-0-0-0-0</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1102,38 +1112,43 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Somen Bhattacharjee</t>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1143,34 +1158,39 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software design</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1180,105 +1200,120 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HSS (Ethics &amp; 2+1)</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1293,33 +1328,38 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0-0-0-0-0</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Electronics Systems</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1348,120 +1388,135 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Introduction of Communication</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>0-0-0-0-0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Introduction to AI</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>0-0-0-0-0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Electronic Systems</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1471,34 +1526,39 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1508,33 +1568,38 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1553,157 +1618,177 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2D Computer Graphics</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Vivekraj V K</t>
+          <t>Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Neuro-Linguistics</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0-0-0-0-0</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Leadership I</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0-0-0-0-0</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Sociology for India</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1713,146 +1798,166 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Social Impact</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Holistic Personality</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Utkarsh Khaire</t>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Neuro-Linguistics</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1867,33 +1972,38 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Leadership I</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1908,33 +2018,38 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sociology for India</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1949,33 +2064,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Social Impact</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1990,33 +2110,38 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Holistic Personality</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2031,33 +2156,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2072,33 +2202,38 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction of Communication</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2113,33 +2248,38 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to AI</t>
+          <t>Graphs and Social Network</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,33 +2294,38 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronic Systems</t>
+          <t>Semiconductor Device Modeling</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2195,33 +2340,38 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Advanced Algorithm Design</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2236,33 +2386,38 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2291,70 +2446,80 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>Cryptography &amp; Information Security</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2373,29 +2538,34 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Jagadish D.N</t>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>User Interactions and Experience Design</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2414,540 +2584,58 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>AI in Biomedical Signal Interpretation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Pramod</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Compiler Design</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Pavan Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Graphs and Social Network</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Utkarsh K</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Semiconductor Device Modeling</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Pankaj Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Advanced Algorithm Design</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Suvadip</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Manjunath K V</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Internet of Things</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cryptography &amp; Information Security</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Rajendra Hegadi</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>User Interactions and Experience Design</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>AI in Biomedical Signal Interpretation</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
           <t>Sibasankar Padhy</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Somen B</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Anand Barangi</t>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
@@ -3020,7 +2708,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3057,12 +2745,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3094,12 +2782,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3353,12 +3041,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3395,7 +3083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3432,7 +3120,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -568,22 +568,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>DA262</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HS261 (Elective)</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>HS261 (Elective)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -664,27 +664,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS307</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HS261 (Elective)</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>DA262</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -870,27 +870,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>HS261 (Elective)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,7 +487,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,22 +509,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DA262</t>
         </is>
       </c>
     </row>
@@ -570,12 +573,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -607,17 +610,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -629,17 +632,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -749,12 +752,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -776,17 +779,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>DA262</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,17 +838,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DA262</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -904,12 +907,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -919,7 +922,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -931,27 +934,4016 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS251 (Tutorial)</t>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Utkarsh Khaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -506,22 +506,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>DA261</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -744,22 +744,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -776,22 +776,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -835,17 +835,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -59,7 +59,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill/>
     </fill>
@@ -134,6 +134,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0045B7D1"/>
+        <bgColor rgb="0045B7D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="008f84e0"/>
         <bgColor rgb="008f84e0"/>
       </patternFill>
@@ -176,8 +182,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e09e84"/>
-        <bgColor rgb="00e09e84"/>
+        <fgColor rgb="0054A0FF"/>
+        <bgColor rgb="0054A0FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -225,18 +231,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -324,6 +330,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1310,7 +1319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1333,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1357,6 +1367,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1389,6 +1400,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1421,6 +1433,7 @@
           <t>CS307 [C202]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1453,6 +1466,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1485,6 +1499,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1494,13 +1509,7 @@
       </c>
       <c r="B6" s="15" t="inlineStr">
         <is>
-          <t>EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]
-ASD352 [C303]
-CS251 [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -1510,13 +1519,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]
-ASD352 [C303]
-CS251 [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="12" t="inlineStr">
@@ -1529,6 +1532,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1543,13 +1547,7 @@
       </c>
       <c r="C7" s="15" t="inlineStr">
         <is>
-          <t>EC251 (Tutorial) [C202]
-EC252 (Tutorial) [C203]
-CS253 (Tutorial) [C204]
-EC254 (Tutorial) [C205]
-CS152 (Tutorial) [C302]
-ASD352 (Tutorial) [C303]
-CS251 (Tutorial) [C304]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -1567,6 +1565,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1581,12 +1580,12 @@
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L105]</t>
+          <t>DA261 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1599,6 +1598,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L105]</t>
+          <t>DA261 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -1631,6 +1631,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1663,6 +1664,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1671,6 +1673,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1679,6 +1682,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -1691,6 +1695,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -1703,6 +1708,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -1725,8 +1731,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -1749,8 +1768,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -1773,8 +1805,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -1797,8 +1842,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -1821,8 +1879,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -1845,8 +1916,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -1869,8 +1953,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -1879,6 +1976,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -1891,6 +1989,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -1923,6 +2022,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1935,14 +2035,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1955,6 +2055,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1967,14 +2068,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1987,6 +2088,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -1999,14 +2101,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2019,6 +2121,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2031,14 +2134,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2051,6 +2154,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2063,14 +2167,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2083,6 +2187,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2095,14 +2200,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2115,6 +2220,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2127,14 +2233,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2147,10 +2253,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -2164,7 +2271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2177,7 +2284,8 @@
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2211,6 +2319,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2243,6 +2352,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2252,12 +2362,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -2275,6 +2385,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2282,18 +2393,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="33" t="inlineStr">
-        <is>
-          <t>HS361 [C101]
-HS362 [C102]
-HS363 [C104]
-HS364 [C202]
-HS365 [C203]</t>
+      <c r="B4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -2311,6 +2418,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2343,6 +2451,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2350,14 +2459,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -2365,14 +2469,9 @@
           <t>DA262 [C203]</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]</t>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="12" t="inlineStr">
@@ -2385,6 +2484,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2397,14 +2497,9 @@
           <t>CS304 (Tutorial) [C203]</t>
         </is>
       </c>
-      <c r="C7" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 (Tutorial) [C303]
-EC251 (Tutorial) [C202]
-EC252 (Tutorial) [C203]
-CS253 (Tutorial) [C204]
-EC254 (Tutorial) [C205]
-CS152 (Tutorial) [C302]</t>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -2417,15 +2512,12 @@
           <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>HS361 (Tutorial) [C202]
-HS362 (Tutorial) [C203]
-HS363 (Tutorial) [C204]
-HS364 (Tutorial) [C205]
-HS365 (Tutorial) [C302]</t>
-        </is>
-      </c>
+      <c r="F7" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2440,7 +2532,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -2458,6 +2550,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2472,7 +2565,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2490,6 +2583,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2522,6 +2616,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2530,6 +2625,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2538,6 +2634,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -2550,6 +2647,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -2562,6 +2660,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -2584,8 +2683,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -2608,8 +2720,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -2632,8 +2757,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -2656,8 +2794,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -2680,8 +2831,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -2704,8 +2868,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -2728,8 +2905,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -2738,6 +2928,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -2750,6 +2941,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -2782,6 +2974,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2794,14 +2987,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2814,6 +3007,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2826,14 +3020,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2846,6 +3040,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2858,14 +3053,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2878,6 +3073,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2890,14 +3086,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2910,6 +3106,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2922,14 +3119,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2942,6 +3139,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2954,14 +3152,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2974,6 +3172,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2986,14 +3185,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3006,10 +3205,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -3023,7 +3223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3036,7 +3236,8 @@
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3070,6 +3271,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3102,6 +3304,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3111,12 +3314,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -3134,6 +3337,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3141,18 +3345,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="33" t="inlineStr">
-        <is>
-          <t>HS361 [C101]
-HS362 [C102]
-HS363 [C104]
-HS364 [C202]
-HS365 [C203]</t>
+      <c r="B4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -3170,6 +3370,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3202,6 +3403,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3209,9 +3411,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C305]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -3219,9 +3421,9 @@
           <t>DA262 [C204]</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C305]</t>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="12" t="inlineStr">
@@ -3234,6 +3436,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3246,9 +3449,9 @@
           <t>CS304 (Tutorial) [C204]</t>
         </is>
       </c>
-      <c r="C7" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 (Tutorial) [C305]</t>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -3261,15 +3464,12 @@
           <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>HS361 (Tutorial) [C202]
-HS362 (Tutorial) [C203]
-HS363 (Tutorial) [C204]
-HS364 (Tutorial) [C205]
-HS365 (Tutorial) [C302]</t>
-        </is>
-      </c>
+      <c r="F7" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3279,12 +3479,12 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L105]</t>
+          <t>DA262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -3299,9 +3499,10 @@
       </c>
       <c r="F8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L105]</t>
-        </is>
-      </c>
+          <t>DA261 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3316,7 +3517,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L105]</t>
+          <t>DA262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3331,9 +3532,10 @@
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L105]</t>
-        </is>
-      </c>
+          <t>DA261 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3366,6 +3568,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3374,6 +3577,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3382,6 +3586,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -3394,6 +3599,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -3406,6 +3612,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -3428,8 +3635,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -3452,8 +3672,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -3476,8 +3709,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -3500,8 +3746,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -3524,8 +3783,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -3548,8 +3820,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -3572,8 +3857,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -3582,6 +3880,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -3594,6 +3893,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -3626,6 +3926,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3638,14 +3939,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3658,6 +3959,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3670,14 +3972,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3690,6 +3992,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3702,14 +4005,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3722,6 +4025,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3734,14 +4038,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3754,6 +4058,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3766,14 +4071,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3786,6 +4091,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3798,14 +4104,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3818,6 +4124,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3830,14 +4137,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3850,10 +4157,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -1410,27 +1410,27 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA262 [C202]</t>
+          <t>DA262 [C304]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1443,22 +1443,22 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>DA262 [C202]</t>
+          <t>DA262 [C304]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C202]</t>
+          <t>CS304 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" s="15" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>DA261 [C202]</t>
+          <t>DA261 [C204]</t>
         </is>
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L206]</t>
+          <t>DA261 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L206]</t>
+          <t>DA261 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA262 [C203]</t>
+          <t>DA262 [C305]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>CS304 [C302]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>CS307 [C303]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>DA262 [C203]</t>
+          <t>DA262 [C305]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C203]</t>
+          <t>CS304 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C7" s="15" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3027,12 +3027,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3093,12 +3093,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3126,12 +3126,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3192,12 +3192,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3324,12 +3324,12 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA262 [C204]</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C204]</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C204]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>DA262 [C204]</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C204]</t>
+          <t>CS304 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C7" s="15" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -3484,22 +3484,22 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L206]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>CS307 [C303]</t>
         </is>
       </c>
       <c r="E8" s="16" t="inlineStr">
         <is>
-          <t>DA261 [C202]</t>
+          <t>DA261 [C204]</t>
         </is>
       </c>
       <c r="F8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L206]</t>
+          <t>DA261 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L206]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L206]</t>
+          <t>DA261 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3979,12 +3979,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4045,12 +4045,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4144,12 +4144,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="F8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -750,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -802,6 +803,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -829,6 +835,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Krishendu, Girish</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS304 (3-1-0-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -856,6 +867,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>CS307 (3-0-2-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -883,6 +899,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>DA261 (1-0-2-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -910,6 +931,11 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>DA262 (2-0-2-0-3 | Full Sem)</t>
         </is>
       </c>
@@ -937,6 +963,11 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>MA261 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -964,6 +995,11 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
+          <t>Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
           <t>MA262 (2-0-0-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -998,6 +1034,11 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -1025,6 +1066,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>ASD352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1052,6 +1098,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>CS152 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1079,6 +1130,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>CS251 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1106,6 +1162,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>CS253 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1133,6 +1194,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>EC251 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1160,6 +1226,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>EC252 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1187,6 +1258,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>EC254 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1214,6 +1290,11 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>HS261 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1241,6 +1322,11 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
           <t>HS361 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1268,6 +1354,11 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
           <t>HS362 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1295,6 +1386,11 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
           <t>HS363 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1322,6 +1418,11 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
           <t>HS364 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1349,15 +1450,20 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
           <t>HS365 (1-0-0-0-1)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1460,22 +1566,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA262 [L404]</t>
+          <t>DA262 [C304]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C104]</t>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
@@ -1493,17 +1599,17 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C305]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C305]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -1574,7 +1680,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1607,7 +1713,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1625,17 +1731,17 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>DA261 [C303]</t>
+          <t>DA261 [C204]</t>
         </is>
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L107]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1663,12 +1769,12 @@
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L107]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2412,22 +2518,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA262 [L405]</t>
+          <t>DA262 [C305]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C204]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2450,12 +2556,12 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C305]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>CS304 [C302]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -2526,7 +2632,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2559,7 +2665,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -2577,17 +2683,17 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C305]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2615,7 +2721,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3364,22 +3470,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA262 [L406]</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C205]</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -3402,12 +3508,12 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C305]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C204]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -3468,7 +3574,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>DA262 [L402]</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -3478,7 +3584,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3511,7 +3617,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -3529,27 +3635,27 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C305]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C303]</t>
         </is>
       </c>
       <c r="E8" s="16" t="inlineStr">
         <is>
-          <t>DA261 [C303]</t>
+          <t>DA261 [C204]</t>
         </is>
       </c>
       <c r="F8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3567,7 +3673,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3582,7 +3688,7 @@
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -4305,22 +4411,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [L403]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [L403]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>DA262 [L405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C205]</t>
+          <t>CS304 [C304]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4342,17 +4448,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA261 [L406]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C305]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4406,7 +4512,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [L404]</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4465,27 +4571,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA261 [L406]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>CS307 [C303]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DA261 [C303]</t>
+          <t>DA261 [C204]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4608,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4517,7 +4623,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L106]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
     </row>
@@ -4609,27 +4715,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name [L407]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type [L407]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs [L407]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs [L407]</t>
         </is>
       </c>
     </row>
@@ -4857,27 +4963,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course [L407]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code [L407]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom [L407]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom [L407]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
     </row>
@@ -5281,10 +5387,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>73.5</v>
+        <v>52.5</v>
       </c>
       <c r="E5" t="n">
-        <v>14.7</v>
+        <v>10.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5349,10 +5455,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5485,10 +5591,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5655,10 +5761,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5689,10 +5795,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5961,10 +6067,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6179,10 +6285,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6213,10 +6319,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6247,10 +6353,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6281,10 +6387,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6315,10 +6421,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6570,21 +6676,21 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6594,7 +6700,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6608,7 +6714,7 @@
         </is>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6738,7 +6844,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6858,21 +6964,21 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6882,7 +6988,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -6896,7 +7002,7 @@
         </is>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7362,21 +7468,21 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -7386,7 +7492,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7400,7 +7506,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7506,21 +7612,21 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7530,7 +7636,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -7544,7 +7650,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7602,7 +7708,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7655,12 +7761,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7674,7 +7780,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7722,17 +7828,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7746,7 +7852,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -7794,17 +7900,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -7818,7 +7924,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -7938,21 +8044,21 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -7962,7 +8068,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -7976,7 +8082,7 @@
         </is>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8442,21 +8548,21 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -8466,7 +8572,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8480,7 +8586,7 @@
         </is>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8586,21 +8692,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -8610,7 +8716,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8624,7 +8730,7 @@
         </is>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8658,21 +8764,21 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8682,7 +8788,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -8696,7 +8802,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8735,7 +8841,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -8754,7 +8860,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8874,21 +8980,21 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -8898,7 +9004,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -8912,7 +9018,7 @@
         </is>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9378,21 +9484,21 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -9402,7 +9508,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -9416,7 +9522,7 @@
         </is>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9546,7 +9652,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -9604,7 +9710,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9618,7 +9724,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -9834,7 +9940,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -9954,21 +10060,21 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -9978,7 +10084,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -9992,7 +10098,7 @@
         </is>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10458,21 +10564,21 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -10482,7 +10588,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -10496,7 +10602,7 @@
         </is>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10626,7 +10732,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -10698,7 +10804,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -10818,21 +10924,21 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -10842,7 +10948,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -10856,7 +10962,7 @@
         </is>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -11322,21 +11428,21 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -11346,7 +11452,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -11360,7 +11466,7 @@
         </is>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11418,7 +11524,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -13194,17 +13300,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -13218,7 +13324,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -13562,7 +13668,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -13638,7 +13744,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -13691,12 +13797,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -13714,7 +13820,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -13762,15 +13868,19 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
@@ -13786,7 +13896,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -13834,17 +13944,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J103" t="b">
@@ -13862,7 +13972,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -13938,7 +14048,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -14014,7 +14124,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -14062,19 +14172,15 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="b">
         <v>0</v>
       </c>
@@ -14090,7 +14196,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -14138,17 +14244,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -14166,7 +14272,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -14214,12 +14320,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -14242,7 +14348,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -14290,17 +14396,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -14318,7 +14424,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -14371,7 +14477,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -14394,7 +14500,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -14460,7 +14566,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C203, C204</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>
@@ -14477,7 +14583,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C204, C205</t>
+          <t>C001, C305</t>
         </is>
       </c>
     </row>
@@ -14494,7 +14600,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C205, C302</t>
+          <t>C002, L402</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14617,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C302</t>
+          <t>C003, L403</t>
         </is>
       </c>
     </row>
@@ -14528,7 +14634,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C303</t>
+          <t>C004, L404</t>
         </is>
       </c>
     </row>
@@ -14545,7 +14651,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C304, L402</t>
+          <t>L402, L405</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -835,7 +835,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>Krishendu, Girish</t>
+          <t>Krishnendu, Girish G N</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+          <t>Utkarsh K, Siddharth, Deepak K T</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Vivekraj V K</t>
+          <t>Vivekraj</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Aswath Babu</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Anushree</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
@@ -1533,27 +1533,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1566,27 +1566,27 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>MA262 [L404]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA262 [C304]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C205]</t>
+          <t>CS304 [L402]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA261 [L408]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C205]</t>
+          <t>CS304 [L402]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>DA262 [C304]</t>
+          <t>DA262 [C302]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C304]</t>
+          <t>CS304 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C7" s="15" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [C002]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1731,17 +1731,17 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>DA261 [C204]</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L207]</t>
+          <t>DA261 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L402]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L207]</t>
+          <t>DA261 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L402]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -1797,27 +1797,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2485,27 +2485,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2516,24 +2516,24 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>MA262 [C003]</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>MA262 [C003]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>DA262 [C305]</t>
-        </is>
-      </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C101]</t>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>DA262 [L406]</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L408]</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [C002]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2554,19 +2554,19 @@
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C302]</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [C303]</t>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [L408]</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [L403]</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2620,9 +2620,9 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>DA262 [C305]</t>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>MA262 [L404]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -2630,9 +2630,9 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2648,9 +2648,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C305]</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" s="15" t="inlineStr">
@@ -2663,9 +2663,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -2681,29 +2681,29 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [C004]</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L207]</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [C302]</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>MA262 [L404]</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L408]</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [C102]</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C002]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2714,29 +2714,29 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C104]</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L207]</t>
-        </is>
-      </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C002]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2749,27 +2749,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3437,27 +3437,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3468,24 +3468,24 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>MA262 [C003]</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>MA262 [C003]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>DA262 [C102]</t>
-        </is>
-      </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C102]</t>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>DA262 [L408]</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L408]</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [L403]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -3506,19 +3506,19 @@
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C303]</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [C304]</t>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [L404]</t>
+        </is>
+      </c>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t>DA261 [C104]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -3572,9 +3572,9 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>DA262 [C102]</t>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L408]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -3582,9 +3582,9 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3600,9 +3600,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C102]</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" s="15" t="inlineStr">
@@ -3615,9 +3615,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -3633,29 +3633,29 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [C003]</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L207]</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [C303]</t>
-        </is>
-      </c>
-      <c r="E8" s="16" t="inlineStr">
-        <is>
-          <t>DA261 [C204]</t>
-        </is>
-      </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L207]</t>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>MA262 [L404]</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>MA262 [C303]</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [C104]</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3666,29 +3666,29 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C205]</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L207]</t>
-        </is>
-      </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="16" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L207]</t>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3701,27 +3701,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -4379,27 +4379,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DA262 [L405]</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C304]</t>
+          <t>CS307 [L403]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4448,17 +4448,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [L406]</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS304 [C305]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>DA261 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C102]</t>
+          <t>MA261 [L408]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>DA261 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>DA261 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4571,27 +4571,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA261 [L406]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L407]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 [C303]</t>
+          <t>CS304 [C002]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DA261 [C204]</t>
+          <t>DA262 (Lab) [L404]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
     </row>
@@ -4603,14 +4603,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial) [C205]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L407]</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262 (Lab) [L404]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
     </row>
@@ -4635,27 +4635,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -4715,27 +4715,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L407]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L407]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L407]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L407]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Artificial Intelligence [C204]</t>
+          <t>Artificial Intelligence [C304]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4757,17 +4757,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C304]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C304]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C304]</t>
         </is>
       </c>
     </row>
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Machine Learning [C204]</t>
+          <t>Machine Learning [C302]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C204]</t>
+          <t>3-0-2-0-4 [C303]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Statistical Programming [C204]</t>
+          <t>Statistical Programming [C203]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2 [C204]</t>
+          <t>1-0-2-0-2 [C203]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C203]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4843,12 +4843,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Handling [C204]</t>
+          <t>Data Handling [C203]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3 [C204]</t>
+          <t>2-0-2-0-3 [C102]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4875,27 +4875,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Differential Equations [C102]</t>
+          <t>Differential Equations [C305]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C305]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C102]</t>
+          <t>Pre-Mid Only [C104]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C104]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4907,27 +4907,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [C102]</t>
+          <t>Multivariable Calculus [C305]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C305]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C102]</t>
+          <t>Post-Mid Only [C104]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C104]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4963,27 +4963,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [L407]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [L407]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L407]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L407]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -4995,27 +4995,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5027,27 +5027,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5059,27 +5059,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5091,27 +5091,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5155,27 +5155,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5187,27 +5187,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [C004]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC251 [C004]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25.5</v>
+        <v>10.5</v>
       </c>
       <c r="E6" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31.5</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5931,10 +5931,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6033,10 +6033,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6101,10 +6101,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6387,10 +6387,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6455,10 +6455,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6628,7 +6628,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6676,17 +6676,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6700,7 +6700,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6772,7 +6772,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6810,12 +6810,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6825,12 +6825,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6844,12 +6844,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -6882,12 +6882,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6916,12 +6916,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -6988,12 +6988,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7060,12 +7060,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7098,12 +7098,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7132,12 +7132,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7170,12 +7170,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7204,12 +7204,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7276,12 +7276,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7309,17 +7309,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7381,17 +7381,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7420,12 +7420,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7453,32 +7453,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7492,12 +7492,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7530,12 +7530,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7564,12 +7564,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7602,12 +7602,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -7636,12 +7636,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7674,12 +7674,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7708,12 +7708,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7746,12 +7746,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7780,12 +7780,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7818,12 +7818,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7852,17 +7852,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -7890,12 +7890,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -7924,17 +7924,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -7962,12 +7962,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -7996,12 +7996,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8029,17 +8029,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8049,12 +8049,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8068,12 +8068,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8101,32 +8101,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -8140,12 +8140,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8173,17 +8173,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8212,12 +8212,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8245,17 +8245,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8284,12 +8284,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8317,17 +8317,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8356,12 +8356,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8389,17 +8389,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8428,12 +8428,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8461,17 +8461,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8500,12 +8500,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8533,17 +8533,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8553,12 +8553,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8572,12 +8572,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8610,12 +8610,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8644,12 +8644,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8677,17 +8677,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8697,12 +8697,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8716,12 +8716,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8749,17 +8749,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -8788,12 +8788,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8821,17 +8821,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8860,12 +8860,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8893,17 +8893,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8913,12 +8913,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8932,17 +8932,17 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -8965,17 +8965,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -9037,17 +9037,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9076,17 +9076,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -9109,17 +9109,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -9148,17 +9148,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -9181,17 +9181,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9220,12 +9220,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9253,17 +9253,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9292,12 +9292,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9325,17 +9325,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9364,12 +9364,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9397,17 +9397,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9436,12 +9436,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9508,12 +9508,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9546,12 +9546,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9580,12 +9580,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9618,12 +9618,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9652,12 +9652,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9685,17 +9685,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9757,12 +9757,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -9796,7 +9796,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9829,12 +9829,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -9868,7 +9868,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9901,17 +9901,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -9940,12 +9940,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9973,17 +9973,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10012,12 +10012,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10045,17 +10045,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -10084,12 +10084,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10117,17 +10117,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10189,17 +10189,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10261,17 +10261,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10300,12 +10300,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10333,17 +10333,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10372,12 +10372,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10405,17 +10405,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10438,10 +10438,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
           <t>C102</t>
@@ -10449,7 +10453,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10477,17 +10481,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10510,18 +10514,22 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10549,17 +10557,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10569,7 +10577,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10582,18 +10590,22 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10621,17 +10633,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10646,7 +10658,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10654,18 +10666,22 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10693,32 +10709,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10726,23 +10742,27 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P59" t="b">
@@ -10765,32 +10785,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10798,23 +10818,27 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -10837,17 +10861,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10862,7 +10886,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -10870,18 +10894,22 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10909,17 +10937,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10942,25 +10970,21 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -10981,17 +11005,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11006,7 +11030,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11014,23 +11038,27 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -11053,17 +11081,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11086,23 +11114,27 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P64" t="b">
@@ -11125,17 +11157,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11158,10 +11190,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
           <t>C204</t>
@@ -11169,12 +11205,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11197,17 +11233,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11222,7 +11258,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11230,23 +11266,27 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11269,17 +11309,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11294,7 +11334,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11302,23 +11342,27 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11341,17 +11385,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11366,7 +11410,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11374,23 +11418,27 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -11413,17 +11461,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11433,7 +11481,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -11446,23 +11494,27 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P69" t="b">
@@ -11485,17 +11537,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11524,12 +11576,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -11553,7 +11605,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -11596,7 +11648,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -11629,7 +11681,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -11654,7 +11706,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11672,7 +11724,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -11705,7 +11757,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -11730,7 +11782,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11748,7 +11800,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -11781,7 +11833,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11806,7 +11858,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -11824,7 +11876,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -11857,7 +11909,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -11882,7 +11934,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -11900,7 +11952,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -11933,7 +11985,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -11976,7 +12028,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -12009,7 +12061,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -12052,7 +12104,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -12085,36 +12137,36 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -12124,17 +12176,17 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -12153,17 +12205,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12173,12 +12225,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12189,26 +12241,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="b">
         <v>0</v>
       </c>
@@ -12229,7 +12273,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -12239,22 +12283,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12267,17 +12311,17 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -12305,7 +12349,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -12315,7 +12359,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12325,12 +12369,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12343,17 +12387,17 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -12381,7 +12425,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -12391,7 +12435,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12401,12 +12445,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12419,17 +12463,17 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -12457,7 +12501,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -12467,7 +12511,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12477,7 +12521,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -12495,17 +12539,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -12533,7 +12577,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -12543,7 +12587,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12553,7 +12597,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -12571,17 +12615,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -12609,7 +12653,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -12619,7 +12663,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12629,7 +12673,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -12647,17 +12691,17 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -12666,1854 +12710,6 @@
         </is>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J86" t="b">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>3</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>3</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>3</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>3</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>3</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J95" t="b">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>3</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J96" t="b">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>3</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>3</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J98" t="b">
-        <v>1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>3</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J99" t="b">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>3</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J100" t="b">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>3</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J101" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>3</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J102" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>3</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J103" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>3</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J104" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>3</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J105" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>3</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J107" t="b">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>3</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J108" t="b">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>3</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J109" t="b">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>3</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J110" t="b">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14566,7 +12762,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -14583,7 +12779,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C305</t>
+          <t>L402</t>
         </is>
       </c>
     </row>
@@ -14600,7 +12796,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, L402</t>
+          <t>L403</t>
         </is>
       </c>
     </row>
@@ -14617,7 +12813,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C003, L403</t>
+          <t>L404</t>
         </is>
       </c>
     </row>
@@ -14634,7 +12830,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, L404</t>
+          <t>L405</t>
         </is>
       </c>
     </row>
@@ -14651,7 +12847,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L402, L405</t>
+          <t>L406</t>
         </is>
       </c>
     </row>
@@ -14668,7 +12864,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C102, C202</t>
         </is>
       </c>
     </row>
@@ -14685,7 +12881,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -14702,7 +12898,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
@@ -14719,7 +12915,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204, C205, C302</t>
         </is>
       </c>
     </row>
@@ -14736,7 +12932,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205, C302, C303</t>
         </is>
       </c>
     </row>
@@ -14753,7 +12949,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302, C303, C304</t>
         </is>
       </c>
     </row>
@@ -14770,7 +12966,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303, C304, C305</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -308,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -326,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L404]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA261 [L407]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>MA261 [L408]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1668,9 +1668,9 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>DA262 [C302]</t>
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t>DA262 [C003]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C002]</t>
+          <t>CS307 (Lab) [C003]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1731,17 +1731,17 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA262 [L405]</t>
         </is>
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L407]</t>
+          <t>DA262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L402]</t>
+          <t>DA261 (Lab) [L403]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L407]</t>
+          <t>DA262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L402]</t>
+          <t>DA261 (Lab) [L403]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2516,24 +2516,24 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>DA262 [L406]</t>
         </is>
       </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>DA262 [L404]</t>
+        </is>
+      </c>
       <c r="D3" s="13" t="inlineStr">
         <is>
-          <t>MA261 [L408]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C002]</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [L408]</t>
+          <t>CS304 [L403]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
@@ -2564,9 +2564,9 @@
           <t>CS307 [L403]</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [L402]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L404]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -2683,27 +2683,27 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L404]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>MA261 [L408]</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C102]</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L402]</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [C002]</t>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C003]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2724,19 +2724,19 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C003]</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L402]</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [C002]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3468,24 +3468,24 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>DA262 [L408]</t>
         </is>
       </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>DA262 [L406]</t>
+        </is>
+      </c>
       <c r="D3" s="13" t="inlineStr">
         <is>
-          <t>MA261 [L408]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>CS307 [C002]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 [L404]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
@@ -3516,9 +3516,9 @@
           <t>CS307 [L404]</t>
         </is>
       </c>
-      <c r="E4" s="16" t="inlineStr">
-        <is>
-          <t>DA261 [C104]</t>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>MA261 [L408]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -3582,9 +3582,9 @@
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L407]</t>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>DA261 [L407]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3615,9 +3615,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L407]</t>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -3635,27 +3635,27 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L404]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [C303]</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C104]</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L404]</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
+          <t>MA262 [L405]</t>
+        </is>
+      </c>
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L405]</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>CS307 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L403]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3676,19 +3676,19 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L404]</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L405]</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
         <is>
           <t>CS307 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L403]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA262 [L408]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA262 [L407]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA261 [L408]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4448,17 +4448,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 [L404]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DA261 [C104]</t>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261 [L408]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L407]</t>
+          <t>DA261 [L407]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4576,22 +4576,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS304 [C002]</t>
+          <t>DA262 (Lab) [L405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L404]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>DA261 (Lab) [L403]</t>
         </is>
       </c>
     </row>
@@ -4613,17 +4613,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262 (Lab) [L405]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L404]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>DA261 (Lab) [L403]</t>
         </is>
       </c>
     </row>
@@ -4747,27 +4747,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Artificial Intelligence [C304]</t>
+          <t>Artificial Intelligence [C203]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C204]</t>
+          <t>3-1-0-0-4 [C203]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C304]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C304]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C304]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
     </row>
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Machine Learning [C302]</t>
+          <t>Machine Learning [C203]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C303]</t>
+          <t>3-0-2-0-4 [C203]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Statistical Programming [C203]</t>
+          <t>Statistical Programming [C204]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2 [C203]</t>
+          <t>1-0-2-0-2 [C204]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1/1 [C203]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4843,12 +4843,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Handling [C203]</t>
+          <t>Data Handling [C204]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3 [C102]</t>
+          <t>2-0-2-0-3 [C204]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4875,27 +4875,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Differential Equations [C305]</t>
+          <t>Differential Equations [C102]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [C102]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C104]</t>
+          <t>Pre-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C104]</t>
+          <t>2/2 [C102]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -4907,27 +4907,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [C305]</t>
+          <t>Multivariable Calculus [C102]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [C102]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C104]</t>
+          <t>Post-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [C104]</t>
+          <t>2/2 [C102]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16.5</v>
+        <v>40.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3.3</v>
+        <v>8.1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6033,10 +6033,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6101,10 +6101,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6387,10 +6387,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6455,10 +6455,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6666,27 +6666,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6700,12 +6700,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -6738,27 +6738,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6772,17 +6772,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -6810,12 +6810,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6844,17 +6844,17 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P5" t="b">
@@ -6882,12 +6882,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6916,12 +6916,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -6988,12 +6988,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7098,12 +7098,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7132,12 +7132,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7170,12 +7170,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7204,12 +7204,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7276,12 +7276,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7309,17 +7309,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7386,12 +7386,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7420,12 +7420,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7458,27 +7458,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7492,12 +7492,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7530,12 +7530,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7545,12 +7545,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7564,12 +7564,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7602,12 +7602,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -7636,12 +7636,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7674,12 +7674,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7708,12 +7708,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7746,12 +7746,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7780,12 +7780,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7818,12 +7818,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7852,12 +7852,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7890,12 +7890,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7924,12 +7924,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -7962,12 +7962,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7996,12 +7996,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8029,17 +8029,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8068,12 +8068,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8101,27 +8101,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8140,12 +8140,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8173,17 +8173,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8250,12 +8250,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8284,12 +8284,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8322,12 +8322,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -8356,12 +8356,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8394,12 +8394,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -8428,12 +8428,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -8500,17 +8500,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P28" t="b">
@@ -8538,12 +8538,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8553,12 +8553,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8572,17 +8572,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -8610,12 +8610,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8644,12 +8644,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8677,17 +8677,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8702,7 +8702,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8716,12 +8716,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8749,17 +8749,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -8788,12 +8788,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8821,17 +8821,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8860,12 +8860,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8893,17 +8893,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8932,17 +8932,17 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -8965,17 +8965,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8985,12 +8985,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9004,17 +9004,17 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -9037,17 +9037,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9057,12 +9057,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9076,17 +9076,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -9114,12 +9114,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9129,12 +9129,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9148,17 +9148,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -9186,12 +9186,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9220,12 +9220,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9258,12 +9258,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3/3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9292,12 +9292,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9330,12 +9330,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9364,12 +9364,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9402,27 +9402,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9436,17 +9436,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P41" t="b">
@@ -9474,27 +9474,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9508,17 +9508,17 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P42" t="b">
@@ -9546,12 +9546,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9580,12 +9580,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9618,12 +9618,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9652,12 +9652,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9685,17 +9685,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9724,12 +9724,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9757,32 +9757,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9796,17 +9796,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P46" t="b">
@@ -9829,32 +9829,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9868,17 +9868,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -9901,17 +9901,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9973,17 +9973,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10012,12 +10012,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10050,12 +10050,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10084,12 +10084,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10122,12 +10122,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -10156,17 +10156,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P51" t="b">
@@ -10194,12 +10194,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -10228,17 +10228,17 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P52" t="b">
@@ -10266,12 +10266,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10300,12 +10300,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10338,12 +10338,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10372,12 +10372,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10405,17 +10405,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10438,22 +10438,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10481,17 +10477,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10506,7 +10502,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10514,22 +10510,18 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10557,17 +10549,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10590,22 +10582,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10633,17 +10621,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10658,7 +10646,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10666,22 +10654,18 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10709,17 +10693,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10734,7 +10718,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10742,22 +10726,18 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10790,12 +10770,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10805,12 +10785,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10821,26 +10801,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -10871,7 +10843,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10886,7 +10858,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -10904,12 +10876,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10942,12 +10914,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10957,12 +10929,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -10973,18 +10945,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11005,17 +10985,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11053,12 +11033,12 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -11081,17 +11061,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11129,12 +11109,12 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P64" t="b">
@@ -11157,17 +11137,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11205,12 +11185,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11233,17 +11213,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11258,7 +11238,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11276,17 +11256,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11309,17 +11289,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11334,7 +11314,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11352,17 +11332,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11385,7 +11365,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11395,7 +11375,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11410,7 +11390,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11421,26 +11401,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
         <v>0</v>
       </c>
@@ -11471,7 +11443,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11486,7 +11458,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11504,12 +11476,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11542,12 +11514,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11557,7 +11529,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -11573,18 +11545,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -11605,17 +11585,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11630,7 +11610,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11648,17 +11628,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -11681,17 +11661,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11724,17 +11704,17 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -11757,17 +11737,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11782,7 +11762,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11800,17 +11780,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -11833,17 +11813,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11876,17 +11856,17 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P74" t="b">
@@ -11909,17 +11889,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11934,7 +11914,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -11952,17 +11932,17 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -11985,32 +11965,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12021,26 +12001,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -12071,7 +12043,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12086,7 +12058,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12104,12 +12076,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12142,12 +12114,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12157,7 +12129,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -12173,18 +12145,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P78" t="b">
         <v>0</v>
       </c>
@@ -12205,17 +12185,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12225,7 +12205,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -12241,18 +12221,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P79" t="b">
         <v>0</v>
       </c>
@@ -12273,32 +12261,32 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12311,22 +12299,22 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P80" t="b">
@@ -12349,17 +12337,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12369,12 +12357,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12387,22 +12375,22 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P81" t="b">
@@ -12425,17 +12413,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12445,7 +12433,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -12463,22 +12451,22 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P82" t="b">
@@ -12501,17 +12489,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12521,7 +12509,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -12539,22 +12527,22 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -12577,7 +12565,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -12587,22 +12575,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -12613,26 +12601,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="b">
         <v>0</v>
       </c>
@@ -12658,58 +12638,962 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
         <is>
           <t>HS365</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>L406</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N97" t="inlineStr">
         <is>
           <t>HS365</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
       </c>
-      <c r="P85" t="b">
+      <c r="P97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12762,7 +13646,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, L402</t>
         </is>
       </c>
     </row>
@@ -12779,7 +13663,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L402, L403</t>
         </is>
       </c>
     </row>
@@ -12796,7 +13680,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L403, L404</t>
         </is>
       </c>
     </row>
@@ -12813,7 +13697,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L404, L405</t>
         </is>
       </c>
     </row>
@@ -12830,7 +13714,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L405, L406</t>
         </is>
       </c>
     </row>
@@ -12847,7 +13731,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L406, L407</t>
         </is>
       </c>
     </row>
@@ -12881,7 +13765,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C104, C203</t>
         </is>
       </c>
     </row>
@@ -12898,7 +13782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C203, C204</t>
+          <t>C202, C204</t>
         </is>
       </c>
     </row>
@@ -12915,7 +13799,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204, C205, C302</t>
+          <t>C203, C205</t>
         </is>
       </c>
     </row>
@@ -12932,7 +13816,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C205, C302, C303</t>
+          <t>C204, C302</t>
         </is>
       </c>
     </row>
@@ -12949,7 +13833,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C302, C303, C304</t>
+          <t>C205, C303</t>
         </is>
       </c>
     </row>
@@ -12966,7 +13850,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C303, C304, C305</t>
+          <t>C302, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -1533,27 +1533,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1566,27 +1566,27 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA261 [L407]</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS304 [L402]</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
           <t>MA261 [L407]</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [L407]</t>
-        </is>
-      </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [L402]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>DA262 [C003]</t>
+          <t>DA262 [L402]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C104]</t>
+          <t>CS304 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C7" s="15" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C003]</t>
+          <t>CS307 (Lab) [C104]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>DA262 [L405]</t>
+          <t>DA262 [L407]</t>
         </is>
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L206]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L206]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
@@ -1797,27 +1797,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2485,27 +2485,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2518,22 +2518,22 @@
       </c>
       <c r="B3" s="16" t="inlineStr">
         <is>
-          <t>DA262 [L406]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>DA262 [L404]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C001]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2556,17 +2556,17 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [L403]</t>
+          <t>CS304 [L404]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [L402]</t>
+          <t>CS304 [C302]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262 [L408]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -2683,22 +2683,22 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262 [L408]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="D8" s="16" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L407]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C003]</t>
+          <t>CS307 (Lab) [C004]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C104]</t>
+          <t>CS304 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="D9" s="16" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L407]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C003]</t>
+          <t>CS307 (Lab) [C004]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2749,27 +2749,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3437,27 +3437,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3470,22 +3470,22 @@
       </c>
       <c r="B3" s="16" t="inlineStr">
         <is>
-          <t>DA262 [L408]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>DA262 [L406]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA261 [L403]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C002]</t>
+          <t>CS307 [L402]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -3508,17 +3508,17 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [L404]</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [L404]</t>
+          <t>CS307 [L402]</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>CS304 [C205]</t>
+          <t>CS304 [C204]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA261 [L403]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>DA261 [L407]</t>
+          <t>DA261 [C101]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3635,12 +3635,12 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262 [L408]</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262 [L408]</t>
         </is>
       </c>
       <c r="D8" s="16" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" s="10" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C205]</t>
+          <t>CS304 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" s="10" t="inlineStr">
@@ -3701,27 +3701,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -4379,27 +4379,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -4411,17 +4411,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DA262 [L408]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA262 [L407]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [L408]</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4448,17 +4448,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS304 [L404]</t>
+          <t>CS304 [L405]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS307 [L406]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C205]</t>
+          <t>CS304 [C204]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA261 [L403]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DA261 [L407]</t>
+          <t>DA261 [C104]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262 [L408]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C205]</t>
+          <t>CS304 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4635,27 +4635,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -4747,27 +4747,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Artificial Intelligence [C203]</t>
+          <t>Artificial Intelligence [C204]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C203]</t>
+          <t>3-1-0-0-4 [C204]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C203]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C203]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C203]</t>
         </is>
       </c>
     </row>
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Machine Learning [C203]</t>
+          <t>Machine Learning [C302]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C203]</t>
+          <t>3-0-2-0-4 [C302]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
     </row>
@@ -4811,27 +4811,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Statistical Programming [C204]</t>
+          <t>Statistical Programming [C203]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2 [C204]</t>
+          <t>1-0-2-0-2 [C203]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C204]</t>
+          <t>Post-Mid Only [C203]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C203]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -4843,27 +4843,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Handling [C204]</t>
+          <t>Data Handling [C203]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3 [C204]</t>
+          <t>2-0-2-0-3 [C203]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C203]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C204]</t>
+          <t>2/2 [C203]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -4875,12 +4875,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Differential Equations [C102]</t>
+          <t>Differential Equations [C302]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [C102]</t>
+          <t>Multivariable Calculus [C302]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40.5</v>
+        <v>19.5</v>
       </c>
       <c r="E7" t="n">
-        <v>8.1</v>
+        <v>3.9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>19.5</v>
       </c>
       <c r="E15" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5931,10 +5931,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>19.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6033,10 +6033,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6387,10 +6387,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6455,10 +6455,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6628,7 +6628,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6666,27 +6666,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6700,12 +6700,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -6738,22 +6738,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6772,17 +6772,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -6810,12 +6810,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6844,17 +6844,17 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P5" t="b">
@@ -6882,12 +6882,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6916,12 +6916,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -6988,12 +6988,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7098,12 +7098,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7132,12 +7132,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7170,12 +7170,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7204,12 +7204,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7276,12 +7276,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7309,17 +7309,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7348,12 +7348,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7386,12 +7386,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7420,12 +7420,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7458,12 +7458,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7492,12 +7492,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7530,12 +7530,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7564,12 +7564,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7602,12 +7602,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7617,12 +7617,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7636,12 +7636,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7674,12 +7674,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7708,12 +7708,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7746,12 +7746,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7780,12 +7780,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7818,12 +7818,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7890,12 +7890,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -7962,12 +7962,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -7996,12 +7996,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8034,12 +8034,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8068,12 +8068,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8101,17 +8101,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8140,12 +8140,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8173,17 +8173,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8193,12 +8193,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8212,17 +8212,17 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P24" t="b">
@@ -8250,12 +8250,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8265,12 +8265,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8284,17 +8284,17 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P25" t="b">
@@ -8322,12 +8322,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8356,12 +8356,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8394,12 +8394,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -8428,12 +8428,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -8500,17 +8500,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P28" t="b">
@@ -8538,12 +8538,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -8572,17 +8572,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -8610,12 +8610,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8644,12 +8644,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8682,12 +8682,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8702,7 +8702,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8716,12 +8716,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -8788,12 +8788,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8821,17 +8821,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8860,12 +8860,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8893,17 +8893,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8932,12 +8932,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8965,17 +8965,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9004,12 +9004,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9037,17 +9037,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9076,12 +9076,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9114,27 +9114,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9148,17 +9148,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -9186,27 +9186,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9220,17 +9220,17 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P38" t="b">
@@ -9258,12 +9258,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9292,12 +9292,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9330,12 +9330,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9364,12 +9364,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9402,27 +9402,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9436,17 +9436,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P41" t="b">
@@ -9474,27 +9474,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9508,17 +9508,17 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P42" t="b">
@@ -9546,12 +9546,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9580,12 +9580,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9618,12 +9618,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9652,12 +9652,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9690,12 +9690,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9724,12 +9724,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9757,17 +9757,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9796,12 +9796,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9829,17 +9829,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -9868,17 +9868,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -9901,17 +9901,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9921,12 +9921,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -9940,17 +9940,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P48" t="b">
@@ -9973,17 +9973,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10012,12 +10012,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10050,12 +10050,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10084,12 +10084,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10122,12 +10122,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -10156,17 +10156,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P51" t="b">
@@ -10194,12 +10194,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -10228,17 +10228,17 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P52" t="b">
@@ -10266,12 +10266,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10300,12 +10300,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10338,12 +10338,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10372,12 +10372,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10444,7 +10444,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -10477,17 +10477,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10510,18 +10510,22 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10549,17 +10553,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10574,7 +10578,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10582,18 +10586,22 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10621,17 +10629,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10654,18 +10662,22 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10693,17 +10705,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10718,7 +10730,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10726,18 +10738,22 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10770,12 +10786,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10785,7 +10801,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -10801,18 +10817,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -10843,7 +10867,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10858,7 +10882,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -10876,12 +10900,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10919,7 +10943,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10952,12 +10976,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -10990,12 +11014,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11021,26 +11045,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11061,17 +11077,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11086,7 +11102,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11104,17 +11120,17 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P64" t="b">
@@ -11137,17 +11153,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11185,12 +11201,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11213,17 +11229,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11238,7 +11254,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11256,17 +11272,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11289,17 +11305,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11314,7 +11330,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11332,17 +11348,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11365,7 +11381,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11375,7 +11391,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11390,7 +11406,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11401,18 +11417,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P68" t="b">
         <v>0</v>
       </c>
@@ -11443,7 +11467,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11458,7 +11482,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11476,12 +11500,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11519,24 +11543,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
         <v>0</v>
       </c>
@@ -11552,12 +11572,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -11590,12 +11610,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11605,7 +11625,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -11621,26 +11641,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="b">
         <v>0</v>
       </c>
@@ -11661,17 +11673,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11681,7 +11693,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -11697,26 +11709,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11737,17 +11741,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11780,17 +11784,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -11813,17 +11817,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11856,17 +11860,17 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P74" t="b">
@@ -11889,17 +11893,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11932,17 +11936,17 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -11965,32 +11969,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12001,18 +12005,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -12043,7 +12055,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12076,12 +12088,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12119,7 +12131,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12152,12 +12164,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12195,7 +12207,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12228,12 +12240,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12261,32 +12273,32 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12297,26 +12309,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12337,17 +12341,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12373,26 +12377,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12413,32 +12409,32 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12451,22 +12447,22 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P82" t="b">
@@ -12489,17 +12485,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12509,7 +12505,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -12527,22 +12523,22 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -12565,7 +12561,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -12575,22 +12571,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -12601,18 +12597,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P84" t="b">
         <v>0</v>
       </c>
@@ -12638,12 +12642,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12653,7 +12657,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -12669,18 +12673,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P85" t="b">
         <v>0</v>
       </c>
@@ -12701,17 +12713,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -12744,17 +12756,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P86" t="b">
@@ -12777,17 +12789,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12820,780 +12832,20 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>3</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>3</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>3</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>3</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>3</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J96" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>3</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13646,7 +12898,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -13663,7 +12915,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L402, L403</t>
+          <t>L402</t>
         </is>
       </c>
     </row>
@@ -13680,7 +12932,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L403, L404</t>
+          <t>L403</t>
         </is>
       </c>
     </row>
@@ -13697,7 +12949,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L404, L405</t>
+          <t>L404</t>
         </is>
       </c>
     </row>
@@ -13714,7 +12966,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L405, L406</t>
+          <t>L405</t>
         </is>
       </c>
     </row>
@@ -13731,7 +12983,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L406, L407</t>
+          <t>L406</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13000,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C102, C202</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -13765,7 +13017,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C104, C203</t>
+          <t>C104, C203, C204</t>
         </is>
       </c>
     </row>
@@ -13782,7 +13034,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202, C204</t>
+          <t>C202, C204, C302</t>
         </is>
       </c>
     </row>
@@ -13799,7 +13051,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, C205</t>
+          <t>C203, C205, C303</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13068,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C204, C302</t>
+          <t>C204, C302, C304</t>
         </is>
       </c>
     </row>
@@ -13833,7 +13085,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C205, C303</t>
+          <t>C205, C303, C305</t>
         </is>
       </c>
     </row>
@@ -13850,7 +13102,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C302, C304</t>
+          <t>C001, C302, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -308,16 +308,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -327,6 +324,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1533,27 +1533,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1566,27 +1566,27 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA262 [L105]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA262 [L403]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C102]</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [C104]</t>
+          <t>CS304 [L206]</t>
+        </is>
+      </c>
+      <c r="E3" s="10" t="inlineStr">
+        <is>
+          <t>CS304 [L206]</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1597,24 +1597,24 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [L407]</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C303]</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>MA261 [C307]</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>MA261 [C307]</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1630,27 +1630,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -1663,24 +1663,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="C6" s="16" t="inlineStr">
-        <is>
-          <t>DA262 [L402]</t>
-        </is>
-      </c>
-      <c r="D6" s="15" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>DA262 [C004]</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
+      <c r="E6" s="15" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C308]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1696,12 +1696,12 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C302]</t>
-        </is>
-      </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C102]</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
@@ -1711,9 +1711,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [C104]</t>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C308]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1729,24 +1729,24 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
-        <is>
-          <t>DA262 [L407]</t>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L403]</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DA261 [L404]</t>
+        </is>
+      </c>
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1767,19 +1767,19 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L403]</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -1797,27 +1797,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C304]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C304]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C203]</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C204]</t>
+          <t>Tue 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2396,12 +2396,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2485,27 +2485,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2516,29 +2516,29 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr">
-        <is>
-          <t>MA261</t>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>DA262 [L207]</t>
+        </is>
+      </c>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>DA262 [L208]</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>MA261 [L105]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C001]</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>CS307 [L406]</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -2554,19 +2554,19 @@
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [L404]</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [C305]</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C302]</t>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>CS304 [L206]</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>CS304 [L206]</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2582,27 +2582,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -2615,17 +2615,17 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L408]</t>
-        </is>
-      </c>
-      <c r="D6" s="15" t="inlineStr">
+          <t>MA262 [L403]</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
@@ -2653,7 +2653,7 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
@@ -2683,27 +2683,27 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L408]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [L407]</t>
-        </is>
-      </c>
-      <c r="D8" s="16" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
+          <t>MA262 [L404]</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>MA261 [C307]</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C308]</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2714,9 +2714,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C205]</t>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2724,19 +2724,19 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C308]</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2749,27 +2749,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C304]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C304]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3282,12 +3282,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C203]</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C204]</t>
+          <t>Tue 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3348,12 +3348,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3437,27 +3437,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3468,29 +3468,29 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [L403]</t>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>DA262 [L405]</t>
+        </is>
+      </c>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>DA262 [L106]</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>MA261 [C101]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [L402]</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>CS307 [C204]</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -3506,19 +3506,19 @@
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [L402]</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>CS304 [C204]</t>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>CS304 [C003]</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>CS304 [L408]</t>
+        </is>
+      </c>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t>DA261 [C102]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -3534,27 +3534,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -3567,24 +3567,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>MA261 [L403]</t>
-        </is>
-      </c>
-      <c r="D6" s="15" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>MA261 [C101]</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>DA261 [C101]</t>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3605,7 +3605,7 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
@@ -3615,9 +3615,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [C001]</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -3635,27 +3635,27 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L408]</t>
+          <t>MA262 [L403]</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L408]</t>
-        </is>
-      </c>
-      <c r="D8" s="16" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L405]</t>
-        </is>
-      </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L403]</t>
+          <t>MA262 [L403]</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3666,9 +3666,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C202]</t>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3676,19 +3676,19 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L405]</t>
-        </is>
-      </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L403]</t>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C104]</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3701,27 +3701,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C304]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C304]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -4102,12 +4102,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4135,12 +4135,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C203]</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C204]</t>
+          <t>Tue 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4300,12 +4300,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4379,27 +4379,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
     </row>
@@ -4411,27 +4411,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA262 [L404]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA262 [L403]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA261 [C302]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [L408]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
@@ -4448,17 +4448,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS304 [L405]</t>
+          <t>CS304 [L404]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304 [L408]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C204]</t>
+          <t>DA261 [L403]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261 [L403]</t>
+          <t>MA261 [C302]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DA261 [C104]</t>
+          <t>DA261 (Lab) [C203]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261 (Lab) [L402]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4571,27 +4571,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [L408]</t>
+          <t>MA262 [L405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L405]</t>
+          <t>DA262 (Lab) [C003]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L403]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C202]</t>
+          <t>CS304 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4613,17 +4613,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L405]</t>
+          <t>DA262 (Lab) [C202]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L403]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -4635,27 +4635,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C304]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C305]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C304]</t>
         </is>
       </c>
     </row>
@@ -4715,27 +4715,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Course Name [L405]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L404]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Term Type [L408]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>Lectures Hrs [L404]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorials Hrs [L404]</t>
         </is>
       </c>
     </row>
@@ -4747,27 +4747,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Artificial Intelligence [C204]</t>
+          <t>Artificial Intelligence [C002]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C204]</t>
+          <t>3-1-0-0-4 [C002]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C203]</t>
+          <t>Full Sem [C001]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C203]</t>
+          <t>3/3 [C002]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C203]</t>
+          <t>1/1 [C002]</t>
         </is>
       </c>
     </row>
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Machine Learning [C302]</t>
+          <t>Machine Learning [C002]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C302]</t>
+          <t>3-0-2-0-4 [C002]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C001]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C001]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C001]</t>
         </is>
       </c>
     </row>
@@ -4811,27 +4811,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Statistical Programming [C203]</t>
+          <t>Statistical Programming [C303]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2 [C203]</t>
+          <t>1-0-2-0-2 [C204]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C203]</t>
+          <t>Post-Mid Only [C204]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1/1 [C203]</t>
+          <t>1/1 [C303]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C203]</t>
+          <t>0/0 [C101]</t>
         </is>
       </c>
     </row>
@@ -4843,27 +4843,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Handling [C203]</t>
+          <t>Data Handling [C305]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3 [C203]</t>
+          <t>2-0-2-0-3 [C101]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C203]</t>
+          <t>Full Sem [C101]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C203]</t>
+          <t>2/2 [C303]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C203]</t>
+          <t>0/0 [C101]</t>
         </is>
       </c>
     </row>
@@ -4875,27 +4875,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Differential Equations [C302]</t>
+          <t>Differential Equations [C004]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C004]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C102]</t>
+          <t>Pre-Mid Only [C004]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C004]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C004]</t>
         </is>
       </c>
     </row>
@@ -4907,27 +4907,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus [C302]</t>
+          <t>Multivariable Calculus [C004]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C004]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C102]</t>
+          <t>Post-Mid Only [C004]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C004]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C004]</t>
         </is>
       </c>
     </row>
@@ -4963,27 +4963,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Course [L405]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Course Code [L408]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Lecture Slot - Classroom [L408]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorial Slot - Classroom [L404]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L404]</t>
         </is>
       </c>
     </row>
@@ -4995,27 +4995,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L403]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L408]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5027,27 +5027,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L403]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L408]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5059,27 +5059,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L403]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L408]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5091,27 +5091,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L403]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L408]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L403]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L408]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5155,27 +5155,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L403]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L408]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5187,27 +5187,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronics Systems design-1 [L403]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC251 [L408]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L404]</t>
         </is>
       </c>
     </row>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19.5</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5931,10 +5931,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19.5</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6101,10 +6101,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6251,10 +6251,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6455,10 +6455,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>28.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -6628,7 +6628,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6666,31 +6666,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6700,12 +6700,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6738,12 +6738,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6753,12 +6753,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6772,17 +6772,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -6810,27 +6810,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6844,17 +6844,17 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P5" t="b">
@@ -6882,12 +6882,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6916,12 +6916,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6969,16 +6969,16 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6988,12 +6988,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7026,27 +7026,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -7060,12 +7060,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7098,27 +7098,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -7132,12 +7132,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7170,12 +7170,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7204,12 +7204,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7276,12 +7276,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7309,32 +7309,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7348,12 +7348,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7381,32 +7381,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7420,12 +7420,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7453,17 +7453,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -7492,12 +7492,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7530,12 +7530,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -7564,12 +7564,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7602,12 +7602,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7617,16 +7617,16 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7636,12 +7636,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7650,7 +7650,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -7674,14 +7674,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>classroom</t>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7708,12 +7708,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7746,12 +7746,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7818,12 +7818,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -7852,12 +7852,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7890,12 +7890,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7924,12 +7924,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -7962,12 +7962,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7977,16 +7977,16 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -7996,12 +7996,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8010,7 +8010,7 @@
         </is>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8034,22 +8034,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -8068,12 +8068,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8101,27 +8101,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8140,12 +8140,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8173,17 +8173,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -8212,17 +8212,17 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P24" t="b">
@@ -8245,17 +8245,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8265,12 +8265,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8284,17 +8284,17 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P25" t="b">
@@ -8317,32 +8317,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8356,12 +8356,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8389,32 +8389,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8428,12 +8428,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8461,17 +8461,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -8500,12 +8500,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -8538,12 +8538,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8610,12 +8610,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8644,12 +8644,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8682,12 +8682,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8697,16 +8697,16 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -8716,12 +8716,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -8754,22 +8754,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -8788,17 +8788,17 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -8821,17 +8821,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8860,17 +8860,17 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -8893,17 +8893,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8932,12 +8932,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8965,17 +8965,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8994,7 +8994,7 @@
         </is>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -9004,12 +9004,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9018,7 +9018,7 @@
         </is>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -9037,34 +9037,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -9076,12 +9072,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9109,34 +9105,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -9148,17 +9140,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -9181,32 +9173,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9220,17 +9212,17 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P38" t="b">
@@ -9253,17 +9245,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9297,7 +9289,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9325,32 +9317,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9364,12 +9356,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9397,32 +9389,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9436,12 +9428,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9469,17 +9461,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9489,7 +9481,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9498,7 +9490,7 @@
         </is>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -9508,12 +9500,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9522,7 +9514,7 @@
         </is>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -9546,12 +9538,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9566,7 +9558,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9580,12 +9572,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9618,12 +9610,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9633,12 +9625,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9652,12 +9644,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9690,12 +9682,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9705,12 +9697,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9724,12 +9716,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9757,17 +9749,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9782,7 +9774,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9796,17 +9788,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P46" t="b">
@@ -9829,12 +9821,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -9868,7 +9860,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9901,17 +9893,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9921,7 +9913,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -9940,17 +9932,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P48" t="b">
@@ -9973,17 +9965,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9993,16 +9985,16 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -10012,12 +10004,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10026,7 +10018,7 @@
         </is>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -10045,7 +10037,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10055,22 +10047,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10084,12 +10076,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10117,7 +10109,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10127,24 +10119,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -10156,12 +10144,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10189,7 +10177,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10199,7 +10187,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10228,12 +10216,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10261,7 +10249,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10271,7 +10259,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10300,12 +10288,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10333,7 +10321,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10343,22 +10331,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10372,12 +10360,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10405,7 +10393,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10415,22 +10403,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10444,12 +10432,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10477,17 +10465,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10497,35 +10485,31 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10534,7 +10518,7 @@
         </is>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -10553,17 +10537,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10578,7 +10562,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10586,22 +10570,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10629,17 +10609,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10662,22 +10642,18 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10705,32 +10681,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10738,27 +10714,23 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P59" t="b">
@@ -10781,32 +10753,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10814,27 +10786,23 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -10857,17 +10825,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10890,22 +10858,18 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10933,17 +10897,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10953,35 +10917,31 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -10990,7 +10950,7 @@
         </is>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -11009,27 +10969,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11042,21 +11002,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11077,60 +11041,52 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P64" t="b">
@@ -11153,17 +11109,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11178,7 +11134,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11186,27 +11142,23 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11229,17 +11181,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11262,27 +11214,23 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11305,32 +11253,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11338,27 +11286,23 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11381,32 +11325,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11414,27 +11358,23 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -11457,17 +11397,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11477,7 +11417,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -11486,35 +11426,31 @@
         </is>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -11533,30 +11469,34 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
@@ -11565,26 +11505,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -11605,17 +11537,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11625,12 +11557,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11641,18 +11573,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P71" t="b">
         <v>0</v>
       </c>
@@ -11673,17 +11613,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11693,12 +11633,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11709,18 +11649,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11741,7 +11689,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -11751,7 +11699,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11789,7 +11737,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -11817,7 +11765,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11827,7 +11775,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11865,7 +11813,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -11893,7 +11841,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -11903,7 +11851,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11941,7 +11889,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -11969,7 +11917,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -11979,7 +11927,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12017,7 +11965,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12045,7 +11993,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -12055,22 +12003,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12088,12 +12036,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12121,17 +12069,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12141,7 +12089,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -12157,26 +12105,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="b">
         <v>0</v>
       </c>
@@ -12197,17 +12137,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12217,7 +12157,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -12226,35 +12166,27 @@
         </is>
       </c>
       <c r="J79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -12273,7 +12205,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -12283,22 +12215,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12309,18 +12241,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12341,17 +12281,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12377,18 +12317,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12409,7 +12357,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -12419,22 +12367,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12447,17 +12395,17 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -12485,7 +12433,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -12495,7 +12443,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12505,12 +12453,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12523,17 +12471,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -12561,7 +12509,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -12571,7 +12519,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12581,12 +12529,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -12599,17 +12547,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -12637,7 +12585,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -12647,7 +12595,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12657,7 +12605,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -12675,17 +12623,17 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -12713,7 +12661,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -12723,22 +12671,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12751,17 +12699,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -12789,63 +12737,1835 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>Fri</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
         <is>
           <t>HS365</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
         <is>
           <t>HS365</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
       </c>
-      <c r="P87" t="b">
+      <c r="P111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12898,7 +14618,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302, C303</t>
         </is>
       </c>
     </row>
@@ -12915,7 +14635,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C101, C304</t>
         </is>
       </c>
     </row>
@@ -12932,7 +14652,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -12949,7 +14669,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -12966,7 +14686,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C003, C202</t>
         </is>
       </c>
     </row>
@@ -12983,7 +14703,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203, L408</t>
         </is>
       </c>
     </row>
@@ -13000,7 +14720,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C202</t>
+          <t>C102, C204, C305, L408</t>
         </is>
       </c>
     </row>
@@ -13017,7 +14737,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C104, C203, C204</t>
+          <t>C101, C104, C304</t>
         </is>
       </c>
     </row>
@@ -13034,7 +14754,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202, C204, C302</t>
+          <t>C102, C104, C202</t>
         </is>
       </c>
     </row>
@@ -13051,7 +14771,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, C205, C303</t>
+          <t>C104, C203, C302</t>
         </is>
       </c>
     </row>
@@ -13068,7 +14788,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C204, C302, C304</t>
+          <t>C102, C202, C204</t>
         </is>
       </c>
     </row>
@@ -13085,7 +14805,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C205, C303, C305</t>
+          <t>C203, C205</t>
         </is>
       </c>
     </row>
@@ -13102,7 +14822,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C302, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable.xlsx
@@ -308,13 +308,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -324,9 +327,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1533,17 +1533,17 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C305]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C304]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C304]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1571,22 +1571,22 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [L207]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS304 [L206]</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>CS304 [L206]</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DA261 [L206]</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [L402]</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -1597,24 +1597,24 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L404]</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>MA261 [C307]</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>MA261 [C307]</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [L406]</t>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [L402]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>CS307 [L406]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1630,27 +1630,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -1663,24 +1663,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
-        <is>
-          <t>DA262 [C004]</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t>DA262 [C308]</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="15" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [C308]</t>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1696,12 +1696,12 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C102]</t>
-        </is>
-      </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C305]</t>
+        </is>
+      </c>
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
@@ -1711,9 +1711,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [C308]</t>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C002]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1729,24 +1729,24 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
-        <is>
-          <t>DA262 [C004]</t>
+      <c r="B8" s="16" t="inlineStr">
+        <is>
+          <t>DA262 [L407]</t>
         </is>
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>DA261 [L404]</t>
-        </is>
-      </c>
-      <c r="D8" s="16" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L208]</t>
-        </is>
-      </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [C308]</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1767,19 +1767,19 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [C308]</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" s="16" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L208]</t>
-        </is>
-      </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C305]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -1812,12 +1812,12 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C304]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C304]</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2485,17 +2485,17 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C305]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C304]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C304]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2516,29 +2516,29 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>DA262 [L207]</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>DA262 [L208]</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>MA261 [L105]</t>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L208]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [L406]</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [L406]</t>
+          <t>CS307 [L404]</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -2554,19 +2554,19 @@
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>CS304 [L206]</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>CS304 [L206]</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [L106]</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [L404]</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [L402]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -2582,27 +2582,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -2615,17 +2615,17 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
+          <t>MA262 [L206]</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
@@ -2653,7 +2653,7 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
@@ -2683,27 +2683,27 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L404]</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>MA261 [C307]</t>
-        </is>
-      </c>
-      <c r="D8" s="15" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [C308]</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
+          <t>MA262 [C308]</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L408]</t>
+        </is>
+      </c>
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C002]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2714,9 +2714,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C102]</t>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2724,19 +2724,19 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [C308]</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C303]</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C002]</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2749,12 +2749,12 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C305]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C304]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3249,12 +3249,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3282,12 +3282,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3315,12 +3315,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C304]</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3437,17 +3437,17 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C305]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C304]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C304]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3468,29 +3468,29 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>DA262 [L405]</t>
-        </is>
-      </c>
-      <c r="C3" s="15" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>DA262 [L106]</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>MA261 [C101]</t>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>DA262 [L105]</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L107]</t>
         </is>
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [L403]</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -3506,19 +3506,19 @@
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>CS304 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>CS304 [L408]</t>
-        </is>
-      </c>
-      <c r="E4" s="16" t="inlineStr">
-        <is>
-          <t>DA261 [C102]</t>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [L206]</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>CS307 [L405]</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>CS304 [C204]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -3534,27 +3534,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -3567,24 +3567,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>MA261 [C101]</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>MA261 [L107]</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>DA261 [C303]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3605,7 +3605,7 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
@@ -3615,9 +3615,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [C001]</t>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="34" t="inlineStr">
@@ -3635,27 +3635,27 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
+          <t>MA262 [L106]</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>MA262 [L403]</t>
-        </is>
-      </c>
-      <c r="D8" s="15" t="inlineStr">
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>DA262 (Lab)</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L107]</t>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [C308]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3666,9 +3666,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C303]</t>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3676,19 +3676,19 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [C104]</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L107]</t>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C305]</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [C308]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C305]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C304]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -4102,12 +4102,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C202]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4135,12 +4135,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C305], Wed 13:00-14:30 [C305]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C205]</t>
+          <t>Tue 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C304]</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4379,17 +4379,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C305]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C304]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C304]</t>
         </is>
       </c>
     </row>
@@ -4411,27 +4411,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DA262 [L404]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA262 [L403]</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C302]</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [L408]</t>
+          <t>CS307 [L407]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -4448,17 +4448,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS304 [L404]</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS304 [L408]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DA261 [L403]</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261 [C302]</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [C203]</t>
+          <t>DA261 [C304]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L402]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4571,27 +4571,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 [L405]</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [C003]</t>
+          <t>DA262 (Lab) [L405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>DA261 (Lab) [C308]</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C004]</t>
+          <t>CS304 (Tutorial) [L406]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4613,17 +4613,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [C202]</t>
+          <t>DA262 (Lab) [C302]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [C003]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>DA261 (Lab) [C302]</t>
         </is>
       </c>
     </row>
@@ -4635,12 +4635,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C305]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C304]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -4715,27 +4715,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L405]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L404]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L408]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L404]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L404]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4747,27 +4747,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Artificial Intelligence [C002]</t>
+          <t>Artificial Intelligence [C003]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C002]</t>
+          <t>3-1-0-0-4 [C003]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C001]</t>
+          <t>Full Sem [C003]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C002]</t>
+          <t>3/3 [C003]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C002]</t>
+          <t>1/1 [C003]</t>
         </is>
       </c>
     </row>
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Machine Learning [C002]</t>
+          <t>Machine Learning [C004]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C002]</t>
+          <t>3-0-2-0-4 [C004]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C001]</t>
+          <t>Full Sem [C004]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C001]</t>
+          <t>3/3 [C004]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C004]</t>
         </is>
       </c>
     </row>
@@ -4811,17 +4811,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Statistical Programming [C303]</t>
+          <t>Statistical Programming [C304]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2 [C204]</t>
+          <t>1-0-2-0-2 [C205]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C204]</t>
+          <t>Post-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C101]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4843,27 +4843,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Handling [C305]</t>
+          <t>Data Handling [C303]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3 [C101]</t>
+          <t>2-0-2-0-3 [C204]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C101]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C303]</t>
+          <t>2/2 [C202]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C101]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4963,27 +4963,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [L405]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [L408]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L408]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L404]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L404]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -4995,27 +4995,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L403]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EC251 [L408]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L404]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5027,27 +5027,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L403]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EC251 [L408]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L404]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5059,27 +5059,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L403]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC251 [L408]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L404]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5091,27 +5091,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L403]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC251 [L408]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L404]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L403]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC251 [L408]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L404]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5155,27 +5155,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L403]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC251 [L408]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L404]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5187,27 +5187,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1 [L403]</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC251 [L408]</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L404]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L404]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="E5" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -5931,10 +5931,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6033,10 +6033,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6101,10 +6101,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6191,10 +6191,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6251,10 +6251,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6387,10 +6387,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6455,10 +6455,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -6628,7 +6628,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6666,12 +6666,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6690,7 +6690,7 @@
         </is>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6700,21 +6700,21 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6738,12 +6738,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6753,12 +6753,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6772,12 +6772,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -6810,27 +6810,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6844,17 +6844,17 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P5" t="b">
@@ -6882,27 +6882,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6916,12 +6916,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6978,7 +6978,7 @@
         </is>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6988,12 +6988,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7026,27 +7026,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -7060,12 +7060,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7098,27 +7098,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -7132,12 +7132,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7170,27 +7170,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7204,12 +7204,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7237,17 +7237,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7276,12 +7276,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7309,32 +7309,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7348,12 +7348,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7381,32 +7381,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7420,12 +7420,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7453,36 +7453,36 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -7492,12 +7492,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7530,12 +7530,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7564,12 +7564,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7602,12 +7602,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -7626,7 +7626,7 @@
         </is>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7636,12 +7636,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7650,7 +7650,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7674,31 +7674,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7708,12 +7708,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7746,27 +7746,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7780,12 +7780,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7813,17 +7813,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -7852,12 +7852,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7885,17 +7885,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -7924,17 +7924,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -7957,17 +7957,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7977,16 +7977,16 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -7996,21 +7996,21 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8029,32 +8029,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8068,12 +8068,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8101,17 +8101,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8140,12 +8140,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8173,32 +8173,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8212,12 +8212,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8245,17 +8245,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8284,12 +8284,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8317,32 +8317,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8356,12 +8356,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8389,17 +8389,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8461,36 +8461,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -8500,12 +8500,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8572,12 +8572,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8625,12 +8625,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8644,12 +8644,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -8697,16 +8697,16 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8749,32 +8749,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -8788,17 +8788,17 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -8821,32 +8821,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8860,12 +8860,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8893,32 +8893,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8932,17 +8932,17 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -8965,17 +8965,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8994,7 +8994,7 @@
         </is>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -9004,12 +9004,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9018,7 +9018,7 @@
         </is>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9057,10 +9057,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -9072,12 +9076,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9105,7 +9109,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9115,20 +9119,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -9140,12 +9148,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9173,7 +9181,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9183,7 +9191,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9212,12 +9220,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9245,7 +9253,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9255,7 +9263,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9284,12 +9292,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9317,7 +9325,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9327,7 +9335,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9361,7 +9369,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9389,7 +9397,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9399,7 +9407,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9433,7 +9441,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9461,17 +9469,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9481,7 +9489,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9490,7 +9498,7 @@
         </is>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -9500,12 +9508,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9514,7 +9522,7 @@
         </is>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9533,34 +9541,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -9572,17 +9576,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P43" t="b">
@@ -9605,17 +9609,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9625,12 +9629,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9644,17 +9648,17 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P44" t="b">
@@ -9677,17 +9681,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9697,12 +9701,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9716,12 +9720,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9749,32 +9753,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9788,17 +9792,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P46" t="b">
@@ -9821,32 +9825,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9860,17 +9864,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -9893,17 +9897,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9918,7 +9922,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -9932,12 +9936,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9965,17 +9969,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9985,7 +9989,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -9994,7 +9998,7 @@
         </is>
       </c>
       <c r="J49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -10004,12 +10008,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10018,7 +10022,7 @@
         </is>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10037,32 +10041,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10076,12 +10080,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10109,30 +10113,34 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -10144,12 +10152,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10177,32 +10185,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10210,25 +10218,21 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="b">
         <v>0</v>
       </c>
@@ -10249,17 +10253,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10269,7 +10273,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -10282,25 +10286,21 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="b">
         <v>0</v>
       </c>
@@ -10321,32 +10321,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10354,18 +10354,22 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10393,32 +10397,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10426,18 +10430,22 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10465,17 +10473,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10485,31 +10493,35 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10518,7 +10530,7 @@
         </is>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10537,17 +10549,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10570,18 +10582,22 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10609,17 +10625,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10642,18 +10658,22 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10681,32 +10701,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10714,23 +10734,27 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P59" t="b">
@@ -10753,32 +10777,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10786,23 +10810,27 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -10825,17 +10853,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10845,7 +10873,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -10858,25 +10886,21 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -10897,60 +10921,56 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10969,27 +10989,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11002,25 +11022,21 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11041,54 +11057,54 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -11109,17 +11125,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11129,12 +11145,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11142,25 +11158,21 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -11181,32 +11193,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>DA262</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11214,25 +11226,21 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11253,32 +11261,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11286,25 +11294,21 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="b">
         <v>0</v>
       </c>
@@ -11325,60 +11329,56 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -11397,17 +11397,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11417,40 +11417,44 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11469,17 +11473,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11494,7 +11498,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11505,18 +11509,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -11537,17 +11549,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11562,7 +11574,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11580,17 +11592,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -11613,17 +11625,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11656,17 +11668,17 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -11689,17 +11701,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11737,12 +11749,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -11765,17 +11777,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11808,17 +11820,17 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P74" t="b">
@@ -11841,32 +11853,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -11884,17 +11896,17 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -11917,32 +11929,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -11953,26 +11965,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -11993,34 +11997,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -12029,26 +12029,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="b">
         <v>0</v>
       </c>
@@ -12069,17 +12061,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12089,7 +12081,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -12108,12 +12100,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -12137,17 +12129,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12157,7 +12149,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -12166,7 +12158,7 @@
         </is>
       </c>
       <c r="J79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -12176,17 +12168,17 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -12210,7 +12202,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -12225,7 +12217,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -12241,14 +12233,10 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -12256,11 +12244,7 @@
           <t>EC251</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12281,32 +12265,32 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12317,26 +12301,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12357,17 +12333,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12377,12 +12353,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12393,26 +12369,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12433,17 +12401,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12476,17 +12444,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -12509,17 +12477,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12552,17 +12520,17 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P84" t="b">
@@ -12585,17 +12553,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12610,7 +12578,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12628,17 +12596,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P85" t="b">
@@ -12661,32 +12629,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12704,17 +12672,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P86" t="b">
@@ -12737,17 +12705,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12757,7 +12725,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -12766,27 +12734,35 @@
         </is>
       </c>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -12815,7 +12791,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -12853,7 +12829,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -12891,22 +12867,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -12924,12 +12900,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -12962,12 +12938,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -12982,7 +12958,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -12993,26 +12969,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="b">
         <v>0</v>
       </c>
@@ -13038,12 +13006,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -13058,7 +13026,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -13069,26 +13037,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
       <c r="P91" t="b">
         <v>0</v>
       </c>
@@ -13114,12 +13074,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -13129,12 +13089,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -13145,26 +13105,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="b">
         <v>0</v>
       </c>
@@ -13185,32 +13137,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -13221,26 +13173,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="b">
         <v>0</v>
       </c>
@@ -13261,32 +13205,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -13297,26 +13241,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="b">
         <v>0</v>
       </c>
@@ -13337,17 +13273,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -13357,7 +13293,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -13366,7 +13302,7 @@
         </is>
       </c>
       <c r="J95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -13376,17 +13312,17 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -13410,27 +13346,27 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J96" t="b">
@@ -13444,12 +13380,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -13473,27 +13409,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -13512,12 +13448,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -13541,17 +13477,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -13561,7 +13497,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -13570,7 +13506,7 @@
         </is>
       </c>
       <c r="J98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -13580,17 +13516,17 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -13614,12 +13550,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -13629,7 +13565,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -13638,7 +13574,7 @@
         </is>
       </c>
       <c r="J99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -13648,17 +13584,17 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -13677,17 +13613,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -13697,7 +13633,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -13713,26 +13649,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="b">
         <v>0</v>
       </c>
@@ -13763,7 +13691,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -13796,12 +13724,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -13839,7 +13767,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -13854,7 +13782,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J102" t="b">
@@ -13872,12 +13800,12 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -13915,7 +13843,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -13948,12 +13876,12 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -13991,7 +13919,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -14024,12 +13952,12 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -14067,7 +13995,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -14100,12 +14028,12 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -14133,17 +14061,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -14176,17 +14104,17 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P106" t="b">
@@ -14219,7 +14147,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -14234,7 +14162,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -14252,12 +14180,12 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -14295,20 +14223,24 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
@@ -14324,12 +14256,12 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -14367,7 +14299,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -14380,11 +14312,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="b">
         <v>0</v>
       </c>
@@ -14400,12 +14328,12 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -14443,7 +14371,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -14453,7 +14381,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -14476,12 +14404,12 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -14519,53 +14447,129 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>HS365</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="J111" t="b">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr">
+      <c r="J112" t="b">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>HSS_B3</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
         <is>
           <t>HS365</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
       </c>
-      <c r="P111" t="b">
+      <c r="P112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14618,7 +14622,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C302, C303</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
@@ -14635,7 +14639,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C304</t>
+          <t>C205, C304</t>
         </is>
       </c>
     </row>
@@ -14652,7 +14656,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C001, C302</t>
         </is>
       </c>
     </row>
@@ -14686,7 +14690,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C202</t>
+          <t>C003, C303</t>
         </is>
       </c>
     </row>
@@ -14703,7 +14707,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C203, L408</t>
+          <t>C202, L403</t>
         </is>
       </c>
     </row>
@@ -14720,7 +14724,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C102, C204, C305, L408</t>
+          <t>C101, C102, C304, L404</t>
         </is>
       </c>
     </row>
@@ -14737,7 +14741,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, C104, C304</t>
+          <t>C102, C203, C305</t>
         </is>
       </c>
     </row>
@@ -14754,7 +14758,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C104, C202</t>
+          <t>C102, C202, C305</t>
         </is>
       </c>
     </row>
@@ -14771,7 +14775,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C104, C203, C302</t>
+          <t>C101, C203, C305</t>
         </is>
       </c>
     </row>
@@ -14788,7 +14792,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102, C202, C204</t>
+          <t>C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -14805,7 +14809,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C203, C205</t>
+          <t>C204, C205</t>
         </is>
       </c>
     </row>
